--- a/Code/Results/Cases/Case_9_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.54028056972285</v>
+        <v>19.77084058103428</v>
       </c>
       <c r="C2">
-        <v>14.55223038993184</v>
+        <v>15.38572421682501</v>
       </c>
       <c r="D2">
-        <v>4.912275427348471</v>
+        <v>5.206962417731738</v>
       </c>
       <c r="E2">
-        <v>8.600407491179766</v>
+        <v>8.75033970942023</v>
       </c>
       <c r="F2">
-        <v>30.18512772381143</v>
+        <v>28.7662444365512</v>
       </c>
       <c r="G2">
-        <v>39.30103194807709</v>
+        <v>36.30594174855935</v>
       </c>
       <c r="H2">
-        <v>1.940686122565508</v>
+        <v>1.913458736371557</v>
       </c>
       <c r="I2">
-        <v>2.587519277975654</v>
+        <v>2.504288489001309</v>
       </c>
       <c r="J2">
-        <v>12.34380309592842</v>
+        <v>12.15190152763918</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.380001280301951</v>
+        <v>14.30754023275786</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.06180346649277</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.373587529616831</v>
       </c>
       <c r="O2">
-        <v>15.41345621147955</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.76216832582583</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.38760413089255</v>
+      </c>
+      <c r="R2">
+        <v>12.60510099373976</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.21306733559441</v>
+        <v>18.48182237694864</v>
       </c>
       <c r="C3">
-        <v>13.59309105590154</v>
+        <v>14.31384793555831</v>
       </c>
       <c r="D3">
-        <v>4.763291085780121</v>
+        <v>5.043127466012991</v>
       </c>
       <c r="E3">
-        <v>8.330320838664608</v>
+        <v>8.491265993198493</v>
       </c>
       <c r="F3">
-        <v>29.1956230383642</v>
+        <v>27.91943764472508</v>
       </c>
       <c r="G3">
-        <v>37.71864918613631</v>
+        <v>35.00146028767691</v>
       </c>
       <c r="H3">
-        <v>2.212734950581695</v>
+        <v>2.165402289373953</v>
       </c>
       <c r="I3">
-        <v>2.803918001415553</v>
+        <v>2.689478848470816</v>
       </c>
       <c r="J3">
-        <v>12.12594315242751</v>
+        <v>11.94691244882052</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.261455243370066</v>
+        <v>14.33888199982427</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.83088634681135</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.268243150444628</v>
       </c>
       <c r="O3">
-        <v>14.61538758338894</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.92166212654037</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.59359094726307</v>
+      </c>
+      <c r="R3">
+        <v>12.74903171044854</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.34948711066606</v>
+        <v>17.6699180432773</v>
       </c>
       <c r="C4">
-        <v>12.97419318543699</v>
+        <v>13.62089670859666</v>
       </c>
       <c r="D4">
-        <v>4.670364788643799</v>
+        <v>4.941264321794802</v>
       </c>
       <c r="E4">
-        <v>8.159610613786244</v>
+        <v>8.327866995207158</v>
       </c>
       <c r="F4">
-        <v>28.57895579508113</v>
+        <v>27.39129106167938</v>
       </c>
       <c r="G4">
-        <v>36.72484308778994</v>
+        <v>34.18609546791511</v>
       </c>
       <c r="H4">
-        <v>2.385481000463982</v>
+        <v>2.325547846436246</v>
       </c>
       <c r="I4">
-        <v>2.942047510987118</v>
+        <v>2.80816437840403</v>
       </c>
       <c r="J4">
-        <v>11.99352126244454</v>
+        <v>11.81937342565366</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.18645173061267</v>
+        <v>14.35470249179197</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.70824483181086</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.201591879844568</v>
       </c>
       <c r="O4">
-        <v>14.10433939053345</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.02061962139494</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.0846964148892</v>
+      </c>
+      <c r="R4">
+        <v>12.83897050583736</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.97742132970745</v>
+        <v>17.31958082751147</v>
       </c>
       <c r="C5">
-        <v>12.72388841401826</v>
+        <v>13.33897535696493</v>
       </c>
       <c r="D5">
-        <v>4.634263975004204</v>
+        <v>4.901565612649553</v>
       </c>
       <c r="E5">
-        <v>8.089478411973856</v>
+        <v>8.260862397981276</v>
       </c>
       <c r="F5">
-        <v>28.31331076901743</v>
+        <v>27.16256660372493</v>
       </c>
       <c r="G5">
-        <v>36.29188774017528</v>
+        <v>33.82886164427978</v>
       </c>
       <c r="H5">
-        <v>2.457708063316322</v>
+        <v>2.392533657283885</v>
       </c>
       <c r="I5">
-        <v>3.002732808867752</v>
+        <v>2.86133679842606</v>
       </c>
       <c r="J5">
-        <v>11.93553048960322</v>
+        <v>11.76286195263131</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.154978119268442</v>
+        <v>14.35275722865862</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.65723494975112</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.173614608929308</v>
       </c>
       <c r="O5">
-        <v>13.89060745716661</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.06044602443345</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.87177281918353</v>
+      </c>
+      <c r="R5">
+        <v>12.87564384668303</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.90518150256658</v>
+        <v>17.25140121367871</v>
       </c>
       <c r="C6">
-        <v>12.69344302683529</v>
+        <v>13.30294072291341</v>
       </c>
       <c r="D6">
-        <v>4.63082988284054</v>
+        <v>4.897516772999305</v>
       </c>
       <c r="E6">
-        <v>8.078540959645945</v>
+        <v>8.250455697706787</v>
       </c>
       <c r="F6">
-        <v>28.25397553476345</v>
+        <v>27.11022158194101</v>
       </c>
       <c r="G6">
-        <v>36.1917068181249</v>
+        <v>33.74281108670267</v>
       </c>
       <c r="H6">
-        <v>2.470240320448413</v>
+        <v>2.404145299635108</v>
       </c>
       <c r="I6">
-        <v>3.016821323027486</v>
+        <v>2.87481887828292</v>
       </c>
       <c r="J6">
-        <v>11.92054480223234</v>
+        <v>11.74837928096422</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.149289178575766</v>
+        <v>14.34319904690548</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.64170526633749</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.168546946587692</v>
       </c>
       <c r="O6">
-        <v>13.85437210451697</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.0661377490244</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.83568529750011</v>
+      </c>
+      <c r="R6">
+        <v>12.88130453780209</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31857900654611</v>
+        <v>17.6304297016286</v>
       </c>
       <c r="C7">
-        <v>13.00168924538985</v>
+        <v>13.63383127352628</v>
       </c>
       <c r="D7">
-        <v>4.67684620734972</v>
+        <v>4.9524876788019</v>
       </c>
       <c r="E7">
-        <v>8.160781857455705</v>
+        <v>8.331143131939564</v>
       </c>
       <c r="F7">
-        <v>28.53456274326764</v>
+        <v>27.3251602270459</v>
       </c>
       <c r="G7">
-        <v>36.64360060848849</v>
+        <v>34.18610086448909</v>
       </c>
       <c r="H7">
-        <v>2.387662669937573</v>
+        <v>2.328342851765232</v>
       </c>
       <c r="I7">
-        <v>2.95333043815565</v>
+        <v>2.821843520330311</v>
       </c>
       <c r="J7">
-        <v>11.97813398698755</v>
+        <v>11.74916497414205</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.184872147885497</v>
+        <v>14.31944665429487</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.67822677191176</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.199729737357867</v>
       </c>
       <c r="O7">
-        <v>14.1002847197079</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.01866345168752</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.07618085884289</v>
+      </c>
+      <c r="R7">
+        <v>12.83789697854735</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.0610237270137</v>
+        <v>19.27530580398759</v>
       </c>
       <c r="C8">
-        <v>14.26532775176723</v>
+        <v>15.01897645713505</v>
       </c>
       <c r="D8">
-        <v>4.870095811693419</v>
+        <v>5.175246082401165</v>
       </c>
       <c r="E8">
-        <v>8.511023868805372</v>
+        <v>8.671412872716216</v>
       </c>
       <c r="F8">
-        <v>29.79413835259778</v>
+        <v>28.34879984351157</v>
       </c>
       <c r="G8">
-        <v>38.66530283592051</v>
+        <v>36.01258269856117</v>
       </c>
       <c r="H8">
-        <v>2.034862230656792</v>
+        <v>2.003107026296076</v>
       </c>
       <c r="I8">
-        <v>2.674783633560628</v>
+        <v>2.585531890411475</v>
       </c>
       <c r="J8">
-        <v>12.24953713660971</v>
+        <v>11.88358491028553</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.338117294891391</v>
+        <v>14.2556667255843</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.91912924189535</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.335019039529096</v>
       </c>
       <c r="O8">
-        <v>15.14122838300533</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.81398629174712</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.10277769330416</v>
+      </c>
+      <c r="R8">
+        <v>12.65252170468125</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.20740781509135</v>
+        <v>22.24217690001078</v>
       </c>
       <c r="C9">
-        <v>16.45790799381863</v>
+        <v>17.46219538768998</v>
       </c>
       <c r="D9">
-        <v>5.224742288710101</v>
+        <v>5.570574124568754</v>
       </c>
       <c r="E9">
-        <v>9.154707278440046</v>
+        <v>9.291822875894663</v>
       </c>
       <c r="F9">
-        <v>32.24934327748294</v>
+        <v>30.43816473647634</v>
       </c>
       <c r="G9">
-        <v>42.5607696024195</v>
+        <v>39.30211262817696</v>
       </c>
       <c r="H9">
-        <v>1.731961317613849</v>
+        <v>1.714601295733438</v>
       </c>
       <c r="I9">
-        <v>2.79360027790252</v>
+        <v>2.815786082010369</v>
       </c>
       <c r="J9">
-        <v>12.81641659110571</v>
+        <v>12.35928247188124</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.623083290916728</v>
+        <v>14.18280605284182</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.60691898510324</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.58806778261092</v>
       </c>
       <c r="O9">
-        <v>17.01164767860646</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.423822932583</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.95894193292671</v>
+      </c>
+      <c r="R9">
+        <v>12.30379110543458</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.24241836940619</v>
+        <v>24.08744528522974</v>
       </c>
       <c r="C10">
-        <v>17.89180878113836</v>
+        <v>18.98693237928866</v>
       </c>
       <c r="D10">
-        <v>5.432164245075304</v>
+        <v>5.826706476762483</v>
       </c>
       <c r="E10">
-        <v>9.4705040983991</v>
+        <v>9.599366342616742</v>
       </c>
       <c r="F10">
-        <v>33.74450035763412</v>
+        <v>31.57191428959239</v>
       </c>
       <c r="G10">
-        <v>44.95119318762514</v>
+        <v>41.70037279224326</v>
       </c>
       <c r="H10">
-        <v>2.160069778892428</v>
+        <v>2.105497864066966</v>
       </c>
       <c r="I10">
-        <v>3.140398306427054</v>
+        <v>3.109951730469542</v>
       </c>
       <c r="J10">
-        <v>13.16740529779611</v>
+        <v>12.34488916816761</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.762569822731143</v>
+        <v>13.9936830519389</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.05036084411689</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.704542885413535</v>
       </c>
       <c r="O10">
-        <v>18.14572717477514</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.13498699093569</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.06044872993434</v>
+      </c>
+      <c r="R10">
+        <v>12.05835734009263</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.67514719772583</v>
+        <v>24.44694328413496</v>
       </c>
       <c r="C11">
-        <v>18.14689688092403</v>
+        <v>19.0830020193483</v>
       </c>
       <c r="D11">
-        <v>5.137708367735846</v>
+        <v>5.540300286424741</v>
       </c>
       <c r="E11">
-        <v>8.577864166141337</v>
+        <v>8.67366873592707</v>
       </c>
       <c r="F11">
-        <v>32.40287031762546</v>
+        <v>30.03139551202482</v>
       </c>
       <c r="G11">
-        <v>43.32764022798693</v>
+        <v>40.99683664208951</v>
       </c>
       <c r="H11">
-        <v>3.009321450051274</v>
+        <v>2.959750544731338</v>
       </c>
       <c r="I11">
-        <v>3.239816451568964</v>
+        <v>3.19184270320707</v>
       </c>
       <c r="J11">
-        <v>12.76316791696207</v>
+        <v>11.37790958423042</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.393500537594166</v>
+        <v>13.2829184202682</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.53072165376867</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.332788969598243</v>
       </c>
       <c r="O11">
-        <v>17.5341729695131</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.9871941961512</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.40491333863655</v>
+      </c>
+      <c r="R11">
+        <v>12.00745014520739</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.65544519897802</v>
+        <v>24.42995855905439</v>
       </c>
       <c r="C12">
-        <v>18.03191165736244</v>
+        <v>18.85117769625669</v>
       </c>
       <c r="D12">
-        <v>4.85400454419942</v>
+        <v>5.230042805210037</v>
       </c>
       <c r="E12">
-        <v>7.939629155034485</v>
+        <v>7.987653668635991</v>
       </c>
       <c r="F12">
-        <v>30.98727015730379</v>
+        <v>28.59925217352911</v>
       </c>
       <c r="G12">
-        <v>41.52330411422523</v>
+        <v>39.73387950183262</v>
       </c>
       <c r="H12">
-        <v>4.234219141538997</v>
+        <v>4.198415737417919</v>
       </c>
       <c r="I12">
-        <v>3.251693133327126</v>
+        <v>3.199658690515607</v>
       </c>
       <c r="J12">
-        <v>12.36118047719143</v>
+        <v>10.77575798951816</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.172903340484072</v>
+        <v>12.7948665025812</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.05473852922562</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.116412054132882</v>
       </c>
       <c r="O12">
-        <v>16.77204690633769</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.95430507569646</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.62560272561896</v>
+      </c>
+      <c r="R12">
+        <v>12.04327719875057</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.256293636351</v>
+        <v>24.11322719983626</v>
       </c>
       <c r="C13">
-        <v>17.65741654622472</v>
+        <v>18.40549900102428</v>
       </c>
       <c r="D13">
-        <v>4.569790098542362</v>
+        <v>4.884542689660457</v>
       </c>
       <c r="E13">
-        <v>7.496097112639243</v>
+        <v>7.489051861090819</v>
       </c>
       <c r="F13">
-        <v>29.3452912386013</v>
+        <v>27.13599267638344</v>
       </c>
       <c r="G13">
-        <v>39.32363136279498</v>
+        <v>37.66379184721263</v>
       </c>
       <c r="H13">
-        <v>5.531519495680074</v>
+        <v>5.508000352944605</v>
       </c>
       <c r="I13">
-        <v>3.200112090806532</v>
+        <v>3.157179049194538</v>
       </c>
       <c r="J13">
-        <v>11.910726123818</v>
+        <v>10.4877678547916</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.059772420893593</v>
+        <v>12.42281788812777</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.56992674674013</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.01399284384314</v>
       </c>
       <c r="O13">
-        <v>15.82587007699233</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.00098659072292</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.69029101912368</v>
+      </c>
+      <c r="R13">
+        <v>12.13171301808474</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.79380332459153</v>
+        <v>23.74517584928165</v>
       </c>
       <c r="C14">
-        <v>17.27985165424663</v>
+        <v>17.99616165588273</v>
       </c>
       <c r="D14">
-        <v>4.376339264328067</v>
+        <v>4.635658421965984</v>
       </c>
       <c r="E14">
-        <v>7.324939479306863</v>
+        <v>7.284014234843567</v>
       </c>
       <c r="F14">
-        <v>28.0717151652734</v>
+        <v>26.07443025927231</v>
       </c>
       <c r="G14">
-        <v>37.56328993002568</v>
+        <v>35.81776036421064</v>
       </c>
       <c r="H14">
-        <v>6.466063324239095</v>
+        <v>6.449652194616126</v>
       </c>
       <c r="I14">
-        <v>3.136464047984818</v>
+        <v>3.106100809133834</v>
       </c>
       <c r="J14">
-        <v>11.56872923871066</v>
+        <v>10.40838200175025</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.048992174053393</v>
+        <v>12.20398301025066</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.2205503541152</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.013402878156865</v>
       </c>
       <c r="O14">
-        <v>15.068306406291</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.07136797282741</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.95243623493191</v>
+      </c>
+      <c r="R14">
+        <v>12.21547123728981</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.59022225097146</v>
+        <v>23.58097587421178</v>
       </c>
       <c r="C15">
-        <v>17.14004053308656</v>
+        <v>17.85602607754622</v>
       </c>
       <c r="D15">
-        <v>4.328163280874644</v>
+        <v>4.570028723518369</v>
       </c>
       <c r="E15">
-        <v>7.297343535621057</v>
+        <v>7.25156399349948</v>
       </c>
       <c r="F15">
-        <v>27.7010301790529</v>
+        <v>25.7929479487676</v>
       </c>
       <c r="G15">
-        <v>37.02475176595569</v>
+        <v>35.18474441599657</v>
       </c>
       <c r="H15">
-        <v>6.677846122504303</v>
+        <v>6.675117377926145</v>
       </c>
       <c r="I15">
-        <v>3.108137949850653</v>
+        <v>3.084174749545312</v>
       </c>
       <c r="J15">
-        <v>11.47115671237715</v>
+        <v>10.43790413287493</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.051942834335936</v>
+        <v>12.16367439650616</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.12567320386433</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.020017683843892</v>
       </c>
       <c r="O15">
-        <v>14.84313111336511</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.10191841946665</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.73726206525459</v>
+      </c>
+      <c r="R15">
+        <v>12.2434566293029</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.79592945416236</v>
+        <v>22.92367516698321</v>
       </c>
       <c r="C16">
-        <v>16.61451039257069</v>
+        <v>17.39080734039783</v>
       </c>
       <c r="D16">
-        <v>4.29068682599179</v>
+        <v>4.499745881978106</v>
       </c>
       <c r="E16">
-        <v>7.229104180354261</v>
+        <v>7.20762823667059</v>
       </c>
       <c r="F16">
-        <v>27.30472743617285</v>
+        <v>25.70496723548494</v>
       </c>
       <c r="G16">
-        <v>36.28837989865137</v>
+        <v>33.84600963696126</v>
       </c>
       <c r="H16">
-        <v>6.458785481342868</v>
+        <v>6.46556111285965</v>
       </c>
       <c r="I16">
-        <v>2.973264776924705</v>
+        <v>2.975898466302953</v>
       </c>
       <c r="J16">
-        <v>11.39292045440136</v>
+        <v>10.88569194469822</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.007330914153574</v>
+        <v>12.340519079003</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.10094079390724</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.986153203362528</v>
       </c>
       <c r="O16">
-        <v>14.50193520937434</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.20443713973408</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.43932958337266</v>
+      </c>
+      <c r="R16">
+        <v>12.29640265168229</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.43102095960394</v>
+        <v>22.60083385512936</v>
       </c>
       <c r="C17">
-        <v>16.41547462779558</v>
+        <v>17.24108247411264</v>
       </c>
       <c r="D17">
-        <v>4.364195175098602</v>
+        <v>4.578372568009877</v>
       </c>
       <c r="E17">
-        <v>7.242400075704703</v>
+        <v>7.249588174564073</v>
       </c>
       <c r="F17">
-        <v>27.69586599723453</v>
+        <v>26.18793225096518</v>
       </c>
       <c r="G17">
-        <v>36.69220334603837</v>
+        <v>33.9326532628095</v>
       </c>
       <c r="H17">
-        <v>5.715006078953391</v>
+        <v>5.720707326725092</v>
       </c>
       <c r="I17">
-        <v>2.903493968571253</v>
+        <v>2.919121884661059</v>
       </c>
       <c r="J17">
-        <v>11.51744363800882</v>
+        <v>11.21614721492647</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.966768807981682</v>
+        <v>12.59043278098366</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.25443729694675</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.948201063265985</v>
       </c>
       <c r="O17">
-        <v>14.65746636607237</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.24615334171547</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.61231521527076</v>
+      </c>
+      <c r="R17">
+        <v>12.30085738121335</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.42466133357952</v>
+        <v>22.57374164344417</v>
       </c>
       <c r="C18">
-        <v>16.46225923900312</v>
+        <v>17.35556999618723</v>
       </c>
       <c r="D18">
-        <v>4.553284541720683</v>
+        <v>4.795958934496826</v>
       </c>
       <c r="E18">
-        <v>7.470876334146858</v>
+        <v>7.51253232276399</v>
       </c>
       <c r="F18">
-        <v>28.83501698735046</v>
+        <v>27.28743730752795</v>
       </c>
       <c r="G18">
-        <v>38.17265561400377</v>
+        <v>35.1571199892126</v>
       </c>
       <c r="H18">
-        <v>4.438214410925371</v>
+        <v>4.44492327281962</v>
       </c>
       <c r="I18">
-        <v>2.880529182110684</v>
+        <v>2.898461873588916</v>
       </c>
       <c r="J18">
-        <v>11.83954563430237</v>
+        <v>11.59040577599248</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.994813533639016</v>
+        <v>12.97059274245808</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.61034558810321</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.972489721954897</v>
       </c>
       <c r="O18">
-        <v>15.26075566715336</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.25238200135486</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.22061011253488</v>
+      </c>
+      <c r="R18">
+        <v>12.26820368629667</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.66941749115152</v>
+        <v>22.7583520700741</v>
       </c>
       <c r="C19">
-        <v>16.74884611722215</v>
+        <v>17.72626800643524</v>
       </c>
       <c r="D19">
-        <v>4.849044424982899</v>
+        <v>5.133691019024498</v>
       </c>
       <c r="E19">
-        <v>8.042268747216363</v>
+        <v>8.120146303488916</v>
       </c>
       <c r="F19">
-        <v>30.41422712088024</v>
+        <v>28.74853423509358</v>
       </c>
       <c r="G19">
-        <v>40.26429613383479</v>
+        <v>37.0076265596115</v>
       </c>
       <c r="H19">
-        <v>3.016241522682422</v>
+        <v>3.00302997649543</v>
       </c>
       <c r="I19">
-        <v>2.90723900270628</v>
+        <v>2.921523873968237</v>
       </c>
       <c r="J19">
-        <v>12.27110975963825</v>
+        <v>11.99115176902776</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.173785032007059</v>
+        <v>13.40507349171817</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.07172978814937</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.143128022601859</v>
       </c>
       <c r="O19">
-        <v>16.16621880436623</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.24933613747316</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.12398298339337</v>
+      </c>
+      <c r="R19">
+        <v>12.22401609015646</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.66021720978516</v>
+        <v>23.58513970664074</v>
       </c>
       <c r="C20">
-        <v>17.59587805498312</v>
+        <v>18.7021574898091</v>
       </c>
       <c r="D20">
-        <v>5.394878218773765</v>
+        <v>5.761188230122626</v>
       </c>
       <c r="E20">
-        <v>9.388327641795822</v>
+        <v>9.512574368633434</v>
       </c>
       <c r="F20">
-        <v>33.23585661138095</v>
+        <v>31.24046459626011</v>
       </c>
       <c r="G20">
-        <v>44.12122298712091</v>
+        <v>40.64421575381792</v>
       </c>
       <c r="H20">
-        <v>2.043997011129339</v>
+        <v>2.001839645888796</v>
       </c>
       <c r="I20">
-        <v>3.057855102075016</v>
+        <v>3.047310742657969</v>
       </c>
       <c r="J20">
-        <v>13.03050184988383</v>
+        <v>12.48995103453492</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.720638850761388</v>
+        <v>14.01010912399346</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.89240075745694</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.670136977715551</v>
       </c>
       <c r="O20">
-        <v>17.84565089178007</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.20528303017878</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.78229502975601</v>
+      </c>
+      <c r="R20">
+        <v>12.12214598514592</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.23388013508209</v>
+        <v>24.86299364075155</v>
       </c>
       <c r="C21">
-        <v>18.70575626857137</v>
+        <v>19.70826257282382</v>
       </c>
       <c r="D21">
-        <v>5.620209136604898</v>
+        <v>6.114362495406906</v>
       </c>
       <c r="E21">
-        <v>9.828582244557166</v>
+        <v>9.990487519186928</v>
       </c>
       <c r="F21">
-        <v>34.73902342655464</v>
+        <v>32.04669714374972</v>
       </c>
       <c r="G21">
-        <v>46.42466134627235</v>
+        <v>44.12210325707775</v>
       </c>
       <c r="H21">
-        <v>2.387864940596355</v>
+        <v>2.304066625819111</v>
       </c>
       <c r="I21">
-        <v>3.328433982445864</v>
+        <v>3.264397220049324</v>
       </c>
       <c r="J21">
-        <v>13.40794237118444</v>
+        <v>11.64157375084607</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.916679989971261</v>
+        <v>13.81647361869393</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.19067448315565</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.841234275168237</v>
       </c>
       <c r="O21">
-        <v>18.8797718435908</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.99293733974124</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.72255264471559</v>
+      </c>
+      <c r="R21">
+        <v>11.93792484539523</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.21587152841425</v>
+        <v>25.65327883847811</v>
       </c>
       <c r="C22">
-        <v>19.35418966948667</v>
+        <v>20.27472259489001</v>
       </c>
       <c r="D22">
-        <v>5.733742105217543</v>
+        <v>6.314139031854967</v>
       </c>
       <c r="E22">
-        <v>10.04070577455325</v>
+        <v>10.22900307957945</v>
       </c>
       <c r="F22">
-        <v>35.63293783798749</v>
+        <v>32.47334397325245</v>
       </c>
       <c r="G22">
-        <v>47.82168877696894</v>
+        <v>46.3700907503843</v>
       </c>
       <c r="H22">
-        <v>2.602513946257092</v>
+        <v>2.49201207256938</v>
       </c>
       <c r="I22">
-        <v>3.496852887340725</v>
+        <v>3.39711326420462</v>
       </c>
       <c r="J22">
-        <v>13.63930017217765</v>
+        <v>11.03297430634798</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.013987382664168</v>
+        <v>13.67222942109524</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.37237278290652</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.92310827261045</v>
       </c>
       <c r="O22">
-        <v>19.46949090008724</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.85396808020172</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.247898317553</v>
+      </c>
+      <c r="R22">
+        <v>11.82271831435464</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.71796452564844</v>
+        <v>25.27499864720858</v>
       </c>
       <c r="C23">
-        <v>18.98426442047445</v>
+        <v>19.97452236281926</v>
       </c>
       <c r="D23">
-        <v>5.66638888042269</v>
+        <v>6.189084872400064</v>
       </c>
       <c r="E23">
-        <v>9.92574561274121</v>
+        <v>10.09438735417208</v>
       </c>
       <c r="F23">
-        <v>35.19692825874006</v>
+        <v>32.33810893106131</v>
       </c>
       <c r="G23">
-        <v>47.14962755945093</v>
+        <v>45.07352901685593</v>
       </c>
       <c r="H23">
-        <v>2.489482970951011</v>
+        <v>2.394464435849423</v>
       </c>
       <c r="I23">
-        <v>3.404404977594967</v>
+        <v>3.323520114980736</v>
       </c>
       <c r="J23">
-        <v>13.53110685729972</v>
+        <v>11.49309248853194</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.963369029141287</v>
+        <v>13.79233392015803</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.3261324501638</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.881263521717237</v>
       </c>
       <c r="O23">
-        <v>19.15788731973876</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.92994302189339</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.9797922236213</v>
+      </c>
+      <c r="R23">
+        <v>11.88198782997459</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.70843047780528</v>
+        <v>23.627246275311</v>
       </c>
       <c r="C24">
-        <v>17.57260082086701</v>
+        <v>18.68909976727736</v>
       </c>
       <c r="D24">
-        <v>5.418217922246191</v>
+        <v>5.787714035963222</v>
       </c>
       <c r="E24">
-        <v>9.484465108276698</v>
+        <v>9.611491060200168</v>
       </c>
       <c r="F24">
-        <v>33.45588120430552</v>
+        <v>31.44907711875601</v>
       </c>
       <c r="G24">
-        <v>44.43812557855676</v>
+        <v>40.92331538677966</v>
       </c>
       <c r="H24">
-        <v>2.052003363551766</v>
+        <v>2.009294530120565</v>
       </c>
       <c r="I24">
-        <v>3.053681508405019</v>
+        <v>3.040525697805411</v>
       </c>
       <c r="J24">
-        <v>13.09854588018856</v>
+        <v>12.56026508000159</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.766273951772001</v>
+        <v>14.09639727745298</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.98076587965221</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.714979771147596</v>
       </c>
       <c r="O24">
-        <v>17.93321175247874</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.21532872759479</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.87007456311628</v>
+      </c>
+      <c r="R24">
+        <v>12.12281529522285</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34881541291728</v>
+        <v>21.45746818962252</v>
       </c>
       <c r="C25">
-        <v>15.93608345617549</v>
+        <v>16.89129317511225</v>
       </c>
       <c r="D25">
-        <v>5.141781125099667</v>
+        <v>5.470240444329381</v>
       </c>
       <c r="E25">
-        <v>8.988462090875144</v>
+        <v>9.128773193775881</v>
       </c>
       <c r="F25">
-        <v>31.52879716924998</v>
+        <v>29.85086979585403</v>
       </c>
       <c r="G25">
-        <v>41.40915728012541</v>
+        <v>38.21455622406281</v>
       </c>
       <c r="H25">
-        <v>1.562830469742137</v>
+        <v>1.561542466394051</v>
       </c>
       <c r="I25">
-        <v>2.665559379447593</v>
+        <v>2.709889702228688</v>
       </c>
       <c r="J25">
-        <v>12.63732530932863</v>
+        <v>12.28420063335792</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.545948965256808</v>
+        <v>14.18040952323248</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.38041296836809</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.520065582582318</v>
       </c>
       <c r="O25">
-        <v>16.5229222440292</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.52521992162764</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.48008156140562</v>
+      </c>
+      <c r="R25">
+        <v>12.39652993253207</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
